--- a/plan/wbs/wbs.xlsx
+++ b/plan/wbs/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness.LAPTOP-C0HULFB7.000\Desktop\team-dev-spring-boot-ec\plan\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018522F0-8938-4B53-AE13-C2449FAF7618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEDB494-3213-438C-8358-40A2ACBE6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>予定</t>
   </si>
@@ -490,6 +490,16 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ジョウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>飯干、池田</t>
+    <rPh sb="0" eb="2">
+      <t>イイホシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イケダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1076,7 +1086,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6">
         <v>45873</v>
